--- a/mdocs/admproc200byhov.xlsx
+++ b/mdocs/admproc200byhov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DOWNLOADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286DF0A-2182-469D-9614-4D80A5C7A98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{372CE5A5-E8BD-445B-BA9F-01AD21DD55E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
   <si>
     <t>№ п/п</t>
   </si>
@@ -573,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1002,64 +1010,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,22 +1141,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1211,259 +1401,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2053,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,24 +2014,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
@@ -2143,55 +2088,55 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
+      <c r="A12" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="136" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="47" t="s">
@@ -2199,410 +2144,410 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55">
+      <c r="A19" s="81">
         <v>2</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="136" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55">
+      <c r="A26" s="81">
         <v>3</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="136" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="81">
         <v>4</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="136" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="81">
         <v>5</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="136" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="137"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
       <c r="G39" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55">
+      <c r="A43" s="81">
         <v>6</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="136" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="103" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
       <c r="G44" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="134"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
@@ -2649,26 +2594,26 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="82"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="100"/>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
@@ -2763,1201 +2708,1201 @@
       </c>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55">
+      <c r="A55" s="81">
         <v>13</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="77" t="s">
+      <c r="E55" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="103" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="27"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="72" t="s">
+      <c r="D56" s="111"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="69"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="73"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="58"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="69"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="27"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="73"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="58"/>
     </row>
     <row r="59" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="56"/>
-      <c r="B59" s="69"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="54"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="104"/>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="55">
+      <c r="A60" s="81">
         <v>14</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="103" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="69"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="69"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="72" t="s">
+      <c r="D62" s="111"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="69"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="85"/>
       <c r="C63" s="27"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="73"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="58"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="69"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="85"/>
       <c r="C64" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="71"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="73"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="58"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="69"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="27"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="69"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="85"/>
       <c r="C66" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="71"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="69"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="27"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="69"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="85"/>
       <c r="C68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="71"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="69"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="85"/>
       <c r="C69" s="27"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="69"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="69"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="27"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="69"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="71"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="69"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="85"/>
       <c r="C73" s="27"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="69"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="85"/>
       <c r="C74" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="71"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="B75" s="69"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="B76" s="69"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="85"/>
       <c r="C76" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="71"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-      <c r="B77" s="69"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="85"/>
       <c r="C77" s="27"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
-      <c r="B78" s="87"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="86"/>
       <c r="C78" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="79"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
       <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="55">
+      <c r="A79" s="81">
         <v>15</v>
       </c>
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="84" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="53" t="s">
+      <c r="D79" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="91" t="s">
+      <c r="E79" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F79" s="53" t="s">
+      <c r="F79" s="103" t="s">
         <v>21</v>
       </c>
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="69"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="85"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="54"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="104"/>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="69"/>
+      <c r="A81" s="82"/>
+      <c r="B81" s="85"/>
       <c r="C81" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="72" t="s">
+      <c r="D81" s="104"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="69"/>
+      <c r="A82" s="82"/>
+      <c r="B82" s="85"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="73"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="58"/>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="69"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="85"/>
       <c r="C83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="73"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="58"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="69"/>
+      <c r="A84" s="82"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="73"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="58"/>
     </row>
     <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="69"/>
+      <c r="A85" s="82"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="73"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="58"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="69"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="85"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="54"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="104"/>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
-      <c r="B87" s="69"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="85"/>
       <c r="C87" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="54"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="104"/>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="69"/>
+      <c r="A88" s="82"/>
+      <c r="B88" s="85"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="54"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="104"/>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="69"/>
+      <c r="A89" s="82"/>
+      <c r="B89" s="85"/>
       <c r="C89" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="54"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="54"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="104"/>
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="55">
+      <c r="A90" s="81">
         <v>16</v>
       </c>
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="53" t="s">
+      <c r="D90" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E90" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="53" t="s">
+      <c r="F90" s="103" t="s">
         <v>25</v>
       </c>
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="69"/>
+      <c r="A91" s="82"/>
+      <c r="B91" s="85"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="54"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="104"/>
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="69"/>
+      <c r="A92" s="82"/>
+      <c r="B92" s="85"/>
       <c r="C92" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="54"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="104"/>
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="69"/>
+      <c r="A93" s="82"/>
+      <c r="B93" s="85"/>
       <c r="C93" s="12"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="54"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="104"/>
       <c r="G93" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="69"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="85"/>
       <c r="C94" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="54"/>
+      <c r="D94" s="104"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="104"/>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
-      <c r="B95" s="69"/>
+      <c r="A95" s="82"/>
+      <c r="B95" s="85"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="54"/>
+      <c r="D95" s="104"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="104"/>
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
-      <c r="B96" s="69"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="85"/>
       <c r="C96" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="54"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="54"/>
+      <c r="D96" s="104"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="104"/>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="B97" s="69"/>
+      <c r="A97" s="82"/>
+      <c r="B97" s="85"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="54"/>
+      <c r="D97" s="104"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="104"/>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="69"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="85"/>
       <c r="C98" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="54"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="54"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="104"/>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
-      <c r="B99" s="69"/>
+      <c r="A99" s="82"/>
+      <c r="B99" s="85"/>
       <c r="C99" s="12"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="54"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="104"/>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="69"/>
+      <c r="A100" s="82"/>
+      <c r="B100" s="85"/>
       <c r="C100" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="54"/>
+      <c r="D100" s="104"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="104"/>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="69"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="12"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="54"/>
+      <c r="D101" s="104"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="104"/>
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
-      <c r="B102" s="69"/>
+      <c r="A102" s="82"/>
+      <c r="B102" s="85"/>
       <c r="C102" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="54"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="54"/>
+      <c r="D102" s="104"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="104"/>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
-      <c r="B103" s="69"/>
+      <c r="A103" s="82"/>
+      <c r="B103" s="85"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="54"/>
+      <c r="D103" s="104"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="104"/>
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="69"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="85"/>
       <c r="C104" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D104" s="54"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="54"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="104"/>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
-      <c r="B105" s="69"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="85"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="54"/>
+      <c r="D105" s="104"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="104"/>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="69"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="85"/>
       <c r="C106" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D106" s="54"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="54"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="104"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="69"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="54"/>
+      <c r="D107" s="104"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="104"/>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
-      <c r="B108" s="69"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="85"/>
       <c r="C108" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="54"/>
-      <c r="E108" s="92"/>
-      <c r="F108" s="54"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="104"/>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="69"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="85"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="54"/>
+      <c r="D109" s="104"/>
+      <c r="E109" s="102"/>
+      <c r="F109" s="104"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
-      <c r="B110" s="69"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="85"/>
       <c r="C110" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D110" s="54"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="54"/>
+      <c r="D110" s="104"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="104"/>
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
-      <c r="B111" s="69"/>
+      <c r="A111" s="82"/>
+      <c r="B111" s="85"/>
       <c r="C111" s="12"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="54"/>
+      <c r="D111" s="104"/>
+      <c r="E111" s="102"/>
+      <c r="F111" s="104"/>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
-      <c r="B112" s="69"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="85"/>
       <c r="C112" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="54"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="54"/>
+      <c r="D112" s="104"/>
+      <c r="E112" s="102"/>
+      <c r="F112" s="104"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
-      <c r="B113" s="69"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="85"/>
       <c r="C113" s="12"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="54"/>
+      <c r="D113" s="104"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="104"/>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="69"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="85"/>
       <c r="C114" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="92"/>
-      <c r="F114" s="54"/>
+      <c r="D114" s="104"/>
+      <c r="E114" s="102"/>
+      <c r="F114" s="104"/>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
-      <c r="B115" s="69"/>
+      <c r="A115" s="82"/>
+      <c r="B115" s="85"/>
       <c r="C115" s="12"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="92"/>
-      <c r="F115" s="54"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="102"/>
+      <c r="F115" s="104"/>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="56"/>
-      <c r="B116" s="87"/>
+      <c r="A116" s="82"/>
+      <c r="B116" s="86"/>
       <c r="C116" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D116" s="61"/>
-      <c r="E116" s="92"/>
-      <c r="F116" s="61"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="102"/>
+      <c r="F116" s="105"/>
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="55">
+      <c r="A117" s="81">
         <v>17</v>
       </c>
-      <c r="B117" s="68" t="s">
+      <c r="B117" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="53" t="s">
+      <c r="D117" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="53" t="s">
+      <c r="E117" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="F117" s="70" t="s">
+      <c r="F117" s="110" t="s">
         <v>72</v>
       </c>
       <c r="G117" s="14"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="B118" s="69"/>
+      <c r="A118" s="82"/>
+      <c r="B118" s="85"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="71"/>
+      <c r="D118" s="104"/>
+      <c r="E118" s="104"/>
+      <c r="F118" s="111"/>
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="56"/>
-      <c r="B119" s="69"/>
+      <c r="A119" s="82"/>
+      <c r="B119" s="85"/>
       <c r="C119" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="71"/>
+      <c r="D119" s="104"/>
+      <c r="E119" s="104"/>
+      <c r="F119" s="111"/>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
-      <c r="B120" s="69"/>
+      <c r="A120" s="82"/>
+      <c r="B120" s="85"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="71"/>
+      <c r="D120" s="104"/>
+      <c r="E120" s="104"/>
+      <c r="F120" s="111"/>
       <c r="G120" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
-      <c r="B121" s="69"/>
+      <c r="A121" s="82"/>
+      <c r="B121" s="85"/>
       <c r="C121" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="71"/>
+      <c r="D121" s="104"/>
+      <c r="E121" s="104"/>
+      <c r="F121" s="111"/>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
-      <c r="B122" s="69"/>
+      <c r="A122" s="82"/>
+      <c r="B122" s="85"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="71"/>
+      <c r="D122" s="104"/>
+      <c r="E122" s="104"/>
+      <c r="F122" s="111"/>
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
-      <c r="B123" s="69"/>
+      <c r="A123" s="82"/>
+      <c r="B123" s="85"/>
       <c r="C123" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="71"/>
+      <c r="D123" s="104"/>
+      <c r="E123" s="104"/>
+      <c r="F123" s="111"/>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
-      <c r="B124" s="69"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="85"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="71"/>
+      <c r="D124" s="104"/>
+      <c r="E124" s="104"/>
+      <c r="F124" s="111"/>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
-      <c r="B125" s="69"/>
+      <c r="A125" s="82"/>
+      <c r="B125" s="85"/>
       <c r="C125" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="71"/>
+      <c r="D125" s="104"/>
+      <c r="E125" s="104"/>
+      <c r="F125" s="111"/>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
-      <c r="B126" s="69"/>
+      <c r="A126" s="82"/>
+      <c r="B126" s="85"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="71"/>
+      <c r="D126" s="104"/>
+      <c r="E126" s="104"/>
+      <c r="F126" s="111"/>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
-      <c r="B127" s="69"/>
+      <c r="A127" s="82"/>
+      <c r="B127" s="85"/>
       <c r="C127" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="71"/>
+      <c r="D127" s="104"/>
+      <c r="E127" s="104"/>
+      <c r="F127" s="111"/>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
-      <c r="B128" s="69"/>
+      <c r="A128" s="82"/>
+      <c r="B128" s="85"/>
       <c r="C128" s="12"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="71"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="111"/>
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
-      <c r="B129" s="69"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="85"/>
       <c r="C129" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="71"/>
+      <c r="D129" s="104"/>
+      <c r="E129" s="104"/>
+      <c r="F129" s="111"/>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
-      <c r="B130" s="69"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="85"/>
       <c r="C130" s="12"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="71"/>
+      <c r="D130" s="104"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="111"/>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
-      <c r="B131" s="69"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="85"/>
       <c r="C131" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="71"/>
+      <c r="D131" s="104"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="111"/>
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
-      <c r="B132" s="69"/>
+      <c r="A132" s="82"/>
+      <c r="B132" s="85"/>
       <c r="C132" s="12"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="71"/>
+      <c r="D132" s="104"/>
+      <c r="E132" s="104"/>
+      <c r="F132" s="111"/>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
-      <c r="B133" s="69"/>
+      <c r="A133" s="82"/>
+      <c r="B133" s="85"/>
       <c r="C133" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="71"/>
+      <c r="D133" s="104"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="111"/>
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
-      <c r="B134" s="69"/>
+      <c r="A134" s="82"/>
+      <c r="B134" s="85"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="71"/>
+      <c r="D134" s="104"/>
+      <c r="E134" s="104"/>
+      <c r="F134" s="111"/>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
-      <c r="B135" s="69"/>
+      <c r="A135" s="82"/>
+      <c r="B135" s="85"/>
       <c r="C135" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="71"/>
+      <c r="D135" s="104"/>
+      <c r="E135" s="104"/>
+      <c r="F135" s="111"/>
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
-      <c r="B136" s="69"/>
+      <c r="A136" s="82"/>
+      <c r="B136" s="85"/>
       <c r="C136" s="12"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="71"/>
+      <c r="D136" s="104"/>
+      <c r="E136" s="104"/>
+      <c r="F136" s="111"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="56"/>
-      <c r="B137" s="87"/>
+      <c r="A137" s="82"/>
+      <c r="B137" s="86"/>
       <c r="C137" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="79"/>
+      <c r="D137" s="105"/>
+      <c r="E137" s="105"/>
+      <c r="F137" s="112"/>
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="55">
+      <c r="A138" s="81">
         <v>18</v>
       </c>
-      <c r="B138" s="68" t="s">
+      <c r="B138" s="84" t="s">
         <v>73</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D138" s="53" t="s">
+      <c r="D138" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="91" t="s">
+      <c r="E138" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F138" s="53" t="s">
+      <c r="F138" s="103" t="s">
         <v>82</v>
       </c>
       <c r="G138" s="14"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="56"/>
-      <c r="B139" s="69"/>
+      <c r="A139" s="82"/>
+      <c r="B139" s="85"/>
       <c r="C139" s="12"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="92"/>
-      <c r="F139" s="54"/>
+      <c r="D139" s="104"/>
+      <c r="E139" s="102"/>
+      <c r="F139" s="104"/>
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="56"/>
-      <c r="B140" s="69"/>
+      <c r="A140" s="82"/>
+      <c r="B140" s="85"/>
       <c r="C140" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D140" s="54"/>
-      <c r="E140" s="92"/>
-      <c r="F140" s="54"/>
+      <c r="D140" s="104"/>
+      <c r="E140" s="102"/>
+      <c r="F140" s="104"/>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="56"/>
-      <c r="B141" s="69"/>
+      <c r="A141" s="82"/>
+      <c r="B141" s="85"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="54"/>
+      <c r="D141" s="104"/>
+      <c r="E141" s="102"/>
+      <c r="F141" s="104"/>
       <c r="G141" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
-      <c r="B142" s="69"/>
+      <c r="A142" s="82"/>
+      <c r="B142" s="85"/>
       <c r="C142" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D142" s="54"/>
-      <c r="E142" s="92"/>
-      <c r="F142" s="54"/>
+      <c r="D142" s="104"/>
+      <c r="E142" s="102"/>
+      <c r="F142" s="104"/>
       <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
-      <c r="B143" s="69"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="85"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="92"/>
-      <c r="F143" s="54"/>
+      <c r="D143" s="104"/>
+      <c r="E143" s="102"/>
+      <c r="F143" s="104"/>
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
-      <c r="B144" s="69"/>
+      <c r="A144" s="82"/>
+      <c r="B144" s="85"/>
       <c r="C144" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D144" s="54"/>
-      <c r="E144" s="92"/>
-      <c r="F144" s="54"/>
+      <c r="D144" s="104"/>
+      <c r="E144" s="102"/>
+      <c r="F144" s="104"/>
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="56"/>
-      <c r="B145" s="69"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="85"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="92"/>
-      <c r="F145" s="54"/>
+      <c r="D145" s="104"/>
+      <c r="E145" s="102"/>
+      <c r="F145" s="104"/>
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="56"/>
-      <c r="B146" s="69"/>
+      <c r="A146" s="82"/>
+      <c r="B146" s="85"/>
       <c r="C146" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="54"/>
-      <c r="E146" s="92"/>
-      <c r="F146" s="54"/>
+      <c r="D146" s="104"/>
+      <c r="E146" s="102"/>
+      <c r="F146" s="104"/>
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="56"/>
-      <c r="B147" s="69"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="85"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="92"/>
-      <c r="F147" s="54"/>
+      <c r="D147" s="104"/>
+      <c r="E147" s="102"/>
+      <c r="F147" s="104"/>
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="56"/>
-      <c r="B148" s="69"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="85"/>
       <c r="C148" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D148" s="54"/>
-      <c r="E148" s="92"/>
-      <c r="F148" s="54"/>
+      <c r="D148" s="104"/>
+      <c r="E148" s="102"/>
+      <c r="F148" s="104"/>
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="56"/>
-      <c r="B149" s="69"/>
+      <c r="A149" s="82"/>
+      <c r="B149" s="85"/>
       <c r="C149" s="12"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="92"/>
-      <c r="F149" s="54"/>
+      <c r="D149" s="104"/>
+      <c r="E149" s="102"/>
+      <c r="F149" s="104"/>
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="56"/>
-      <c r="B150" s="69"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="85"/>
       <c r="C150" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="54"/>
-      <c r="E150" s="92"/>
-      <c r="F150" s="54"/>
+      <c r="D150" s="104"/>
+      <c r="E150" s="102"/>
+      <c r="F150" s="104"/>
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="56"/>
-      <c r="B151" s="69"/>
+      <c r="A151" s="82"/>
+      <c r="B151" s="85"/>
       <c r="C151" s="12"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="92"/>
-      <c r="F151" s="54"/>
+      <c r="D151" s="104"/>
+      <c r="E151" s="102"/>
+      <c r="F151" s="104"/>
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="56"/>
-      <c r="B152" s="69"/>
+      <c r="A152" s="82"/>
+      <c r="B152" s="85"/>
       <c r="C152" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D152" s="54"/>
-      <c r="E152" s="92"/>
-      <c r="F152" s="54"/>
+      <c r="D152" s="104"/>
+      <c r="E152" s="102"/>
+      <c r="F152" s="104"/>
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="56"/>
-      <c r="B153" s="69"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="85"/>
       <c r="C153" s="12"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="92"/>
-      <c r="F153" s="54"/>
+      <c r="D153" s="104"/>
+      <c r="E153" s="102"/>
+      <c r="F153" s="104"/>
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
-      <c r="B154" s="69"/>
+      <c r="A154" s="82"/>
+      <c r="B154" s="85"/>
       <c r="C154" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D154" s="54"/>
-      <c r="E154" s="92"/>
-      <c r="F154" s="54"/>
+      <c r="D154" s="104"/>
+      <c r="E154" s="102"/>
+      <c r="F154" s="104"/>
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="56"/>
-      <c r="B155" s="69"/>
+      <c r="A155" s="82"/>
+      <c r="B155" s="85"/>
       <c r="C155" s="12"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="54"/>
+      <c r="D155" s="104"/>
+      <c r="E155" s="102"/>
+      <c r="F155" s="104"/>
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A156" s="56"/>
-      <c r="B156" s="69"/>
+      <c r="A156" s="82"/>
+      <c r="B156" s="85"/>
       <c r="C156" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D156" s="54"/>
-      <c r="E156" s="92"/>
-      <c r="F156" s="54"/>
+      <c r="D156" s="104"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="104"/>
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
-      <c r="B157" s="69"/>
+      <c r="A157" s="82"/>
+      <c r="B157" s="85"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="54"/>
-      <c r="E157" s="92"/>
-      <c r="F157" s="54"/>
+      <c r="D157" s="104"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="104"/>
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="56"/>
-      <c r="B158" s="69"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="85"/>
       <c r="C158" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D158" s="54"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="54"/>
+      <c r="D158" s="104"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="104"/>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="56"/>
-      <c r="B159" s="69"/>
+      <c r="A159" s="82"/>
+      <c r="B159" s="85"/>
       <c r="C159" s="12"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="54"/>
+      <c r="D159" s="104"/>
+      <c r="E159" s="102"/>
+      <c r="F159" s="104"/>
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="56"/>
-      <c r="B160" s="69"/>
+      <c r="A160" s="82"/>
+      <c r="B160" s="85"/>
       <c r="C160" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D160" s="54"/>
-      <c r="E160" s="92"/>
-      <c r="F160" s="54"/>
+      <c r="D160" s="104"/>
+      <c r="E160" s="102"/>
+      <c r="F160" s="104"/>
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="56"/>
-      <c r="B161" s="69"/>
+      <c r="A161" s="82"/>
+      <c r="B161" s="85"/>
       <c r="C161" s="12"/>
-      <c r="D161" s="54"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="54"/>
+      <c r="D161" s="104"/>
+      <c r="E161" s="102"/>
+      <c r="F161" s="104"/>
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="56"/>
-      <c r="B162" s="69"/>
+      <c r="A162" s="82"/>
+      <c r="B162" s="85"/>
       <c r="C162" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D162" s="54"/>
-      <c r="E162" s="92"/>
-      <c r="F162" s="54"/>
+      <c r="D162" s="104"/>
+      <c r="E162" s="102"/>
+      <c r="F162" s="104"/>
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="56"/>
-      <c r="B163" s="69"/>
+      <c r="A163" s="82"/>
+      <c r="B163" s="85"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="54"/>
-      <c r="E163" s="92"/>
-      <c r="F163" s="54"/>
+      <c r="D163" s="104"/>
+      <c r="E163" s="102"/>
+      <c r="F163" s="104"/>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A164" s="56"/>
-      <c r="B164" s="69"/>
+      <c r="A164" s="82"/>
+      <c r="B164" s="85"/>
       <c r="C164" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D164" s="54"/>
-      <c r="E164" s="92"/>
-      <c r="F164" s="54"/>
+      <c r="D164" s="104"/>
+      <c r="E164" s="102"/>
+      <c r="F164" s="104"/>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="56"/>
-      <c r="B165" s="69"/>
+      <c r="A165" s="82"/>
+      <c r="B165" s="85"/>
       <c r="C165" s="12"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="92"/>
-      <c r="F165" s="54"/>
+      <c r="D165" s="104"/>
+      <c r="E165" s="102"/>
+      <c r="F165" s="104"/>
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="57"/>
-      <c r="B166" s="87"/>
+      <c r="A166" s="83"/>
+      <c r="B166" s="86"/>
       <c r="C166" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D166" s="61"/>
-      <c r="E166" s="93"/>
-      <c r="F166" s="61"/>
+      <c r="D166" s="105"/>
+      <c r="E166" s="106"/>
+      <c r="F166" s="105"/>
       <c r="G166" s="16"/>
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4030,47 +3975,47 @@
       </c>
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="88">
+      <c r="A170" s="113">
         <v>22</v>
       </c>
-      <c r="B170" s="68" t="s">
+      <c r="B170" s="84" t="s">
         <v>87</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="53" t="s">
+      <c r="D170" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E170" s="91" t="s">
+      <c r="E170" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F170" s="53" t="s">
+      <c r="F170" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="G170" s="102" t="s">
+      <c r="G170" s="125" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="89"/>
-      <c r="B171" s="69"/>
+      <c r="A171" s="114"/>
+      <c r="B171" s="85"/>
       <c r="C171" s="12"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="103"/>
+      <c r="D171" s="104"/>
+      <c r="E171" s="102"/>
+      <c r="F171" s="104"/>
+      <c r="G171" s="126"/>
     </row>
     <row r="172" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="90"/>
-      <c r="B172" s="87"/>
+      <c r="A172" s="115"/>
+      <c r="B172" s="86"/>
       <c r="C172" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="61"/>
-      <c r="E172" s="93"/>
-      <c r="F172" s="61"/>
-      <c r="G172" s="104"/>
+      <c r="D172" s="105"/>
+      <c r="E172" s="106"/>
+      <c r="F172" s="105"/>
+      <c r="G172" s="127"/>
     </row>
     <row r="173" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
@@ -4211,190 +4156,191 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="55">
+      <c r="A179" s="81">
         <v>29</v>
       </c>
-      <c r="B179" s="99" t="s">
+      <c r="B179" s="122" t="s">
         <v>97</v>
       </c>
       <c r="C179" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D179" s="96" t="s">
+      <c r="D179" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="96" t="s">
+      <c r="E179" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="F179" s="96" t="s">
+      <c r="F179" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="G179" s="144" t="s">
+      <c r="G179" s="128" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="56"/>
-      <c r="B180" s="100"/>
+      <c r="A180" s="82"/>
+      <c r="B180" s="123"/>
       <c r="C180" s="34"/>
-      <c r="D180" s="97"/>
-      <c r="E180" s="97"/>
-      <c r="F180" s="97"/>
-      <c r="G180" s="145"/>
+      <c r="D180" s="120"/>
+      <c r="E180" s="120"/>
+      <c r="F180" s="120"/>
+      <c r="G180" s="129"/>
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="100"/>
+      <c r="A181" s="82"/>
+      <c r="B181" s="123"/>
       <c r="C181" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D181" s="97"/>
-      <c r="E181" s="97"/>
-      <c r="F181" s="97"/>
-      <c r="G181" s="145"/>
+      <c r="D181" s="120"/>
+      <c r="E181" s="120"/>
+      <c r="F181" s="120"/>
+      <c r="G181" s="129"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="56"/>
-      <c r="B182" s="100"/>
+      <c r="A182" s="82"/>
+      <c r="B182" s="123"/>
       <c r="C182" s="34"/>
-      <c r="D182" s="97"/>
-      <c r="E182" s="97"/>
-      <c r="F182" s="97"/>
-      <c r="G182" s="145"/>
+      <c r="D182" s="120"/>
+      <c r="E182" s="120"/>
+      <c r="F182" s="120"/>
+      <c r="G182" s="129"/>
     </row>
     <row r="183" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="56"/>
-      <c r="B183" s="100"/>
+      <c r="A183" s="82"/>
+      <c r="B183" s="123"/>
       <c r="C183" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D183" s="97"/>
-      <c r="E183" s="97"/>
-      <c r="F183" s="97"/>
-      <c r="G183" s="141"/>
+      <c r="D183" s="120"/>
+      <c r="E183" s="120"/>
+      <c r="F183" s="120"/>
+      <c r="G183" s="35"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="56"/>
-      <c r="B184" s="100"/>
+      <c r="A184" s="82"/>
+      <c r="B184" s="123"/>
       <c r="C184" s="34"/>
-      <c r="D184" s="97"/>
-      <c r="E184" s="97"/>
-      <c r="F184" s="97"/>
-      <c r="G184" s="141"/>
+      <c r="D184" s="120"/>
+      <c r="E184" s="120"/>
+      <c r="F184" s="120"/>
+      <c r="G184" s="35"/>
     </row>
     <row r="185" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="56"/>
-      <c r="B185" s="100"/>
+      <c r="A185" s="82"/>
+      <c r="B185" s="123"/>
       <c r="C185" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D185" s="97"/>
-      <c r="E185" s="97"/>
-      <c r="F185" s="97"/>
-      <c r="G185" s="141"/>
+      <c r="D185" s="120"/>
+      <c r="E185" s="120"/>
+      <c r="F185" s="120"/>
+      <c r="G185" s="35"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="56"/>
-      <c r="B186" s="100"/>
+      <c r="A186" s="82"/>
+      <c r="B186" s="123"/>
       <c r="C186" s="34"/>
-      <c r="D186" s="97"/>
-      <c r="E186" s="97"/>
-      <c r="F186" s="97"/>
-      <c r="G186" s="141"/>
+      <c r="D186" s="120"/>
+      <c r="E186" s="120"/>
+      <c r="F186" s="120"/>
+      <c r="G186" s="35"/>
     </row>
     <row r="187" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="56"/>
-      <c r="B187" s="100"/>
+      <c r="A187" s="82"/>
+      <c r="B187" s="123"/>
       <c r="C187" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D187" s="97"/>
-      <c r="E187" s="97"/>
-      <c r="F187" s="97"/>
-      <c r="G187" s="141"/>
+      <c r="D187" s="120"/>
+      <c r="E187" s="120"/>
+      <c r="F187" s="120"/>
+      <c r="G187" s="35"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="56"/>
-      <c r="B188" s="100"/>
+      <c r="A188" s="82"/>
+      <c r="B188" s="123"/>
       <c r="C188" s="34"/>
-      <c r="D188" s="97"/>
-      <c r="E188" s="97"/>
-      <c r="F188" s="97"/>
-      <c r="G188" s="141"/>
+      <c r="D188" s="120"/>
+      <c r="E188" s="120"/>
+      <c r="F188" s="120"/>
+      <c r="G188" s="35"/>
     </row>
     <row r="189" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="57"/>
-      <c r="B189" s="101"/>
+      <c r="A189" s="83"/>
+      <c r="B189" s="124"/>
       <c r="C189" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D189" s="98"/>
-      <c r="E189" s="98"/>
-      <c r="F189" s="98"/>
-      <c r="G189" s="142"/>
+      <c r="D189" s="121"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="37"/>
     </row>
     <row r="190" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="139">
+      <c r="A190" s="51">
         <v>30</v>
       </c>
-      <c r="B190" s="135" t="s">
+      <c r="B190" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C190" s="138" t="s">
+      <c r="C190" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D190" s="140" t="s">
+      <c r="D190" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E190" s="137" t="s">
+      <c r="E190" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="F190" s="146" t="s">
+      <c r="F190" t="s">
         <v>2</v>
       </c>
-      <c r="G190" s="143" t="s">
-        <v>138</v>
+      <c r="G190" s="13" t="str">
+        <f>G179</f>
+        <v>Балакис В.Е., главный бухгалтер, пн-пт,  с 8.00 до 17.00 тел. 49-054</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="94" t="s">
+      <c r="A191" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B191" s="95"/>
-      <c r="C191" s="95"/>
-      <c r="D191" s="95"/>
-      <c r="E191" s="95"/>
-      <c r="F191" s="95"/>
-      <c r="G191" s="136"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="117"/>
+      <c r="E191" s="117"/>
+      <c r="F191" s="117"/>
+      <c r="G191" s="118"/>
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="105" t="s">
+      <c r="A192" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B192" s="106"/>
-      <c r="C192" s="106"/>
-      <c r="D192" s="106"/>
-      <c r="E192" s="106"/>
-      <c r="F192" s="106"/>
-      <c r="G192" s="107"/>
+      <c r="B192" s="131"/>
+      <c r="C192" s="131"/>
+      <c r="D192" s="131"/>
+      <c r="E192" s="131"/>
+      <c r="F192" s="131"/>
+      <c r="G192" s="132"/>
     </row>
     <row r="193" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="84">
+      <c r="A193" s="107">
         <v>30</v>
       </c>
-      <c r="B193" s="68" t="s">
+      <c r="B193" s="84" t="s">
         <v>106</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D193" s="53" t="s">
+      <c r="D193" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E193" s="53" t="s">
+      <c r="E193" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="F193" s="70" t="s">
+      <c r="F193" s="110" t="s">
         <v>110</v>
       </c>
       <c r="G193" s="49" t="s">
@@ -4402,49 +4348,49 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="85"/>
-      <c r="B194" s="69"/>
+      <c r="A194" s="108"/>
+      <c r="B194" s="85"/>
       <c r="C194" s="12"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="71"/>
+      <c r="D194" s="104"/>
+      <c r="E194" s="104"/>
+      <c r="F194" s="111"/>
       <c r="G194" s="48" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="85"/>
-      <c r="B195" s="69"/>
+      <c r="A195" s="108"/>
+      <c r="B195" s="85"/>
       <c r="C195" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="71"/>
+      <c r="D195" s="104"/>
+      <c r="E195" s="104"/>
+      <c r="F195" s="111"/>
       <c r="G195" s="48" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="85"/>
-      <c r="B196" s="69"/>
+      <c r="A196" s="108"/>
+      <c r="B196" s="85"/>
       <c r="C196" s="12"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="71"/>
+      <c r="D196" s="104"/>
+      <c r="E196" s="104"/>
+      <c r="F196" s="111"/>
       <c r="G196" s="48" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="86"/>
-      <c r="B197" s="87"/>
+      <c r="A197" s="109"/>
+      <c r="B197" s="86"/>
       <c r="C197" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="79"/>
+      <c r="D197" s="105"/>
+      <c r="E197" s="105"/>
+      <c r="F197" s="112"/>
       <c r="G197" s="16"/>
     </row>
     <row r="198" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4471,69 +4417,69 @@
       </c>
     </row>
     <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="65" t="s">
+      <c r="A199" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B199" s="66"/>
-      <c r="C199" s="66"/>
-      <c r="D199" s="66"/>
-      <c r="E199" s="66"/>
-      <c r="F199" s="66"/>
-      <c r="G199" s="67"/>
+      <c r="B199" s="63"/>
+      <c r="C199" s="63"/>
+      <c r="D199" s="63"/>
+      <c r="E199" s="63"/>
+      <c r="F199" s="63"/>
+      <c r="G199" s="64"/>
     </row>
     <row r="200" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="80" t="s">
+      <c r="A200" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B200" s="81"/>
-      <c r="C200" s="81"/>
-      <c r="D200" s="81"/>
-      <c r="E200" s="81"/>
-      <c r="F200" s="81"/>
-      <c r="G200" s="82"/>
+      <c r="B200" s="99"/>
+      <c r="C200" s="99"/>
+      <c r="D200" s="99"/>
+      <c r="E200" s="99"/>
+      <c r="F200" s="99"/>
+      <c r="G200" s="100"/>
     </row>
     <row r="201" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="55">
+      <c r="A201" s="81">
         <v>32</v>
       </c>
-      <c r="B201" s="68" t="s">
+      <c r="B201" s="84" t="s">
         <v>115</v>
       </c>
       <c r="C201" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D201" s="74" t="s">
+      <c r="D201" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E201" s="74" t="s">
+      <c r="E201" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F201" s="74" t="s">
+      <c r="F201" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G201" s="51" t="s">
+      <c r="G201" s="53" t="s">
         <v>138</v>
       </c>
       <c r="J201" s="1"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="56"/>
-      <c r="B202" s="69"/>
+      <c r="A202" s="82"/>
+      <c r="B202" s="85"/>
       <c r="C202" s="27"/>
-      <c r="D202" s="75"/>
-      <c r="E202" s="75"/>
-      <c r="F202" s="75"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="60"/>
+      <c r="F202" s="60"/>
       <c r="G202" s="35"/>
     </row>
     <row r="203" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="57"/>
-      <c r="B203" s="87"/>
+      <c r="A203" s="83"/>
+      <c r="B203" s="86"/>
       <c r="C203" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="76"/>
-      <c r="E203" s="76"/>
-      <c r="F203" s="76"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="61"/>
       <c r="G203" s="37"/>
     </row>
     <row r="204" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -4555,71 +4501,71 @@
       <c r="F204" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G204" s="52" t="s">
+      <c r="G204" s="54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="206" spans="1:10" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
-      <c r="B206" s="130"/>
-      <c r="C206" s="130"/>
-      <c r="D206" s="130"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="93"/>
       <c r="G206" s="41"/>
     </row>
     <row r="207" spans="1:10" s="40" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="39"/>
-      <c r="B207" s="130"/>
-      <c r="C207" s="130"/>
-      <c r="D207" s="130"/>
+      <c r="B207" s="93"/>
+      <c r="C207" s="93"/>
+      <c r="D207" s="93"/>
       <c r="G207" s="41"/>
     </row>
     <row r="208" spans="1:10" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="39"/>
-      <c r="B208" s="130"/>
-      <c r="C208" s="130"/>
-      <c r="D208" s="130"/>
+      <c r="B208" s="93"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="93"/>
       <c r="G208" s="41"/>
     </row>
     <row r="209" spans="1:7" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
-      <c r="B209" s="130"/>
-      <c r="C209" s="130"/>
-      <c r="D209" s="130"/>
+      <c r="B209" s="93"/>
+      <c r="C209" s="93"/>
+      <c r="D209" s="93"/>
       <c r="G209" s="41"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="131"/>
-      <c r="C210" s="131"/>
-      <c r="D210" s="131"/>
+      <c r="B210" s="94"/>
+      <c r="C210" s="94"/>
+      <c r="D210" s="94"/>
     </row>
     <row r="211" spans="1:7" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
-      <c r="B211" s="130"/>
-      <c r="C211" s="130"/>
-      <c r="D211" s="130"/>
+      <c r="B211" s="93"/>
+      <c r="C211" s="93"/>
+      <c r="D211" s="93"/>
       <c r="G211" s="41"/>
     </row>
     <row r="212" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
-      <c r="B212" s="130"/>
-      <c r="C212" s="130"/>
-      <c r="D212" s="130"/>
+      <c r="B212" s="93"/>
+      <c r="C212" s="93"/>
+      <c r="D212" s="93"/>
       <c r="G212" s="41"/>
     </row>
     <row r="213" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
-      <c r="B213" s="130"/>
-      <c r="C213" s="130"/>
-      <c r="D213" s="130"/>
+      <c r="B213" s="93"/>
+      <c r="C213" s="93"/>
+      <c r="D213" s="93"/>
       <c r="E213" s="42"/>
       <c r="G213" s="41"/>
     </row>
     <row r="214" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="39"/>
-      <c r="B214" s="123"/>
-      <c r="C214" s="123"/>
-      <c r="D214" s="123"/>
+      <c r="B214" s="80"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
       <c r="G214" s="41"/>
     </row>
     <row r="215" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,64 +4641,64 @@
     </row>
     <row r="238" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
-      <c r="B238" s="132" t="s">
+      <c r="B238" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="C238" s="133"/>
-      <c r="D238" s="133"/>
-      <c r="E238" s="134"/>
+      <c r="C238" s="96"/>
+      <c r="D238" s="96"/>
+      <c r="E238" s="97"/>
       <c r="G238" s="4"/>
     </row>
     <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="124" t="s">
+      <c r="B239" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C239" s="125"/>
-      <c r="D239" s="125"/>
-      <c r="E239" s="126"/>
+      <c r="C239" s="88"/>
+      <c r="D239" s="88"/>
+      <c r="E239" s="89"/>
       <c r="G239" s="4"/>
     </row>
     <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="127"/>
-      <c r="C240" s="128"/>
-      <c r="D240" s="128"/>
-      <c r="E240" s="129"/>
+      <c r="B240" s="90"/>
+      <c r="C240" s="91"/>
+      <c r="D240" s="91"/>
+      <c r="E240" s="92"/>
       <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="127"/>
-      <c r="C241" s="128"/>
-      <c r="D241" s="128"/>
-      <c r="E241" s="129"/>
+      <c r="B241" s="90"/>
+      <c r="C241" s="91"/>
+      <c r="D241" s="91"/>
+      <c r="E241" s="92"/>
       <c r="G241" s="4"/>
     </row>
     <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="127"/>
-      <c r="C242" s="128"/>
-      <c r="D242" s="128"/>
-      <c r="E242" s="129"/>
+      <c r="B242" s="90"/>
+      <c r="C242" s="91"/>
+      <c r="D242" s="91"/>
+      <c r="E242" s="92"/>
       <c r="G242" s="4"/>
     </row>
     <row r="243" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="127"/>
-      <c r="C243" s="128"/>
-      <c r="D243" s="128"/>
-      <c r="E243" s="129"/>
+      <c r="B243" s="90"/>
+      <c r="C243" s="91"/>
+      <c r="D243" s="91"/>
+      <c r="E243" s="92"/>
       <c r="G243" s="4"/>
     </row>
     <row r="244" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="117" t="s">
+      <c r="B244" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="C244" s="118"/>
-      <c r="D244" s="118"/>
-      <c r="E244" s="119"/>
+      <c r="C244" s="75"/>
+      <c r="D244" s="75"/>
+      <c r="E244" s="76"/>
       <c r="G244" s="4"/>
     </row>
     <row r="245" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4805,48 +4751,48 @@
     </row>
     <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="120" t="s">
+      <c r="B256" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C256" s="121"/>
-      <c r="D256" s="121"/>
-      <c r="E256" s="122"/>
+      <c r="C256" s="78"/>
+      <c r="D256" s="78"/>
+      <c r="E256" s="79"/>
       <c r="G256" s="4"/>
     </row>
     <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="111"/>
-      <c r="C257" s="112"/>
-      <c r="D257" s="112"/>
-      <c r="E257" s="113"/>
+      <c r="B257" s="68"/>
+      <c r="C257" s="69"/>
+      <c r="D257" s="69"/>
+      <c r="E257" s="70"/>
       <c r="G257" s="4"/>
     </row>
     <row r="258" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="45"/>
-      <c r="B258" s="108" t="s">
+      <c r="B258" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C258" s="109"/>
-      <c r="D258" s="109"/>
-      <c r="E258" s="110"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="66"/>
+      <c r="E258" s="67"/>
       <c r="G258" s="4"/>
     </row>
     <row r="259" spans="1:7" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="45"/>
-      <c r="B259" s="111" t="s">
+      <c r="B259" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C259" s="112"/>
-      <c r="D259" s="112"/>
-      <c r="E259" s="113"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="69"/>
+      <c r="E259" s="70"/>
       <c r="G259" s="4"/>
     </row>
     <row r="260" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="45"/>
-      <c r="B260" s="114"/>
-      <c r="C260" s="115"/>
-      <c r="D260" s="115"/>
-      <c r="E260" s="116"/>
+      <c r="B260" s="71"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="72"/>
+      <c r="E260" s="73"/>
       <c r="G260" s="4"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9539,6 +9485,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="F60:F78"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A60:A78"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="D60:D78"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="E60:E78"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="B117:B137"/>
+    <mergeCell ref="D117:D137"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="F179:F189"/>
+    <mergeCell ref="B179:B189"/>
+    <mergeCell ref="F117:F137"/>
+    <mergeCell ref="G170:G172"/>
+    <mergeCell ref="G179:G182"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="D179:D189"/>
+    <mergeCell ref="A192:G192"/>
+    <mergeCell ref="B60:B78"/>
+    <mergeCell ref="F138:F166"/>
+    <mergeCell ref="B138:B166"/>
+    <mergeCell ref="D138:D166"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="A117:A137"/>
+    <mergeCell ref="E90:E116"/>
+    <mergeCell ref="F90:F116"/>
+    <mergeCell ref="D79:D89"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="E138:E166"/>
+    <mergeCell ref="A90:A116"/>
+    <mergeCell ref="A138:A166"/>
+    <mergeCell ref="E117:E137"/>
+    <mergeCell ref="B90:B116"/>
+    <mergeCell ref="D90:D116"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="F79:F89"/>
     <mergeCell ref="G81:G85"/>
     <mergeCell ref="E201:E203"/>
     <mergeCell ref="F201:F203"/>
@@ -9563,93 +9596,6 @@
     <mergeCell ref="B206:D206"/>
     <mergeCell ref="A200:G200"/>
     <mergeCell ref="E79:E89"/>
-    <mergeCell ref="B60:B78"/>
-    <mergeCell ref="F138:F166"/>
-    <mergeCell ref="B138:B166"/>
-    <mergeCell ref="D138:D166"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="A117:A137"/>
-    <mergeCell ref="E90:E116"/>
-    <mergeCell ref="F90:F116"/>
-    <mergeCell ref="D79:D89"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="E138:E166"/>
-    <mergeCell ref="A90:A116"/>
-    <mergeCell ref="A138:A166"/>
-    <mergeCell ref="E117:E137"/>
-    <mergeCell ref="B90:B116"/>
-    <mergeCell ref="D90:D116"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="F79:F89"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="B117:B137"/>
-    <mergeCell ref="D117:D137"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="A191:G191"/>
-    <mergeCell ref="F179:F189"/>
-    <mergeCell ref="B179:B189"/>
-    <mergeCell ref="F117:F137"/>
-    <mergeCell ref="G170:G172"/>
-    <mergeCell ref="G179:G182"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="D179:D189"/>
-    <mergeCell ref="A192:G192"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="F60:F78"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A60:A78"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="D60:D78"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="E60:E78"/>
-    <mergeCell ref="A55:A59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
